--- a/docs/WIP/TaskRiskDecision.xlsx
+++ b/docs/WIP/TaskRiskDecision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TaskList" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,77 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>deadline</t>
+  </si>
+  <si>
+    <t>updates</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Risk event</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>open/closed</t>
+  </si>
+  <si>
+    <t>Risk area</t>
+  </si>
+  <si>
+    <t>global…</t>
+  </si>
+  <si>
+    <t>Proposed solution</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Areas impacted</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -47,8 +118,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,54 +428,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="D6:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/docs/WIP/TaskRiskDecision.xlsx
+++ b/docs/WIP/TaskRiskDecision.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TaskList" sheetId="1" r:id="rId1"/>
     <sheet name="RiskList" sheetId="2" r:id="rId2"/>
     <sheet name="KeyDecisions" sheetId="3" r:id="rId3"/>
-    <sheet name="LessonsLearned" sheetId="4" r:id="rId4"/>
+    <sheet name="ChangeRequests" sheetId="5" r:id="rId4"/>
+    <sheet name="LessonsLearned" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>description</t>
   </si>
@@ -83,6 +84,15 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Agreed?</t>
   </si>
 </sst>
 </file>
@@ -120,10 +130,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,22 +464,22 @@
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -555,7 +565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -572,6 +582,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/docs/WIP/TaskRiskDecision.xlsx
+++ b/docs/WIP/TaskRiskDecision.xlsx
@@ -10,91 +10,10 @@
     <sheet name="TaskList" sheetId="1" r:id="rId1"/>
     <sheet name="RiskList" sheetId="2" r:id="rId2"/>
     <sheet name="KeyDecisions" sheetId="3" r:id="rId3"/>
-    <sheet name="ChangeRequests" sheetId="5" r:id="rId4"/>
-    <sheet name="LessonsLearned" sheetId="4" r:id="rId5"/>
+    <sheet name="LessonsLearned" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>deadline</t>
-  </si>
-  <si>
-    <t>updates</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>Risk event</t>
-  </si>
-  <si>
-    <t>Probability</t>
-  </si>
-  <si>
-    <t>Impact</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>open/closed</t>
-  </si>
-  <si>
-    <t>Risk area</t>
-  </si>
-  <si>
-    <t>global…</t>
-  </si>
-  <si>
-    <t>Proposed solution</t>
-  </si>
-  <si>
-    <t>Response</t>
-  </si>
-  <si>
-    <t>Areas impacted</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>scope</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Scope</t>
-  </si>
-  <si>
-    <t>Agreed?</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -128,12 +47,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,188 +353,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="D6:E6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/WIP/TaskRiskDecision.xlsx
+++ b/docs/WIP/TaskRiskDecision.xlsx
@@ -10,10 +10,91 @@
     <sheet name="TaskList" sheetId="1" r:id="rId1"/>
     <sheet name="RiskList" sheetId="2" r:id="rId2"/>
     <sheet name="KeyDecisions" sheetId="3" r:id="rId3"/>
-    <sheet name="LessonsLearned" sheetId="4" r:id="rId4"/>
+    <sheet name="ChangeRequests" sheetId="5" r:id="rId4"/>
+    <sheet name="LessonsLearned" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>deadline</t>
+  </si>
+  <si>
+    <t>updates</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Risk event</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>open/closed</t>
+  </si>
+  <si>
+    <t>Risk area</t>
+  </si>
+  <si>
+    <t>global…</t>
+  </si>
+  <si>
+    <t>Proposed solution</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Areas impacted</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Agreed?</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -47,8 +128,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,54 +438,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="D6:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/docs/WIP/TaskRiskDecision.xlsx
+++ b/docs/WIP/TaskRiskDecision.xlsx
@@ -4,21 +4,169 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="4650"/>
   </bookViews>
   <sheets>
-    <sheet name="TaskList" sheetId="1" r:id="rId1"/>
-    <sheet name="RiskList" sheetId="2" r:id="rId2"/>
-    <sheet name="KeyDecisions" sheetId="3" r:id="rId3"/>
-    <sheet name="ChangeRequests" sheetId="5" r:id="rId4"/>
+    <sheet name="RiskList" sheetId="2" r:id="rId1"/>
+    <sheet name="TaskList" sheetId="1" r:id="rId2"/>
+    <sheet name="ChangeRequests" sheetId="5" r:id="rId3"/>
+    <sheet name="KeyDecisions" sheetId="3" r:id="rId4"/>
     <sheet name="LessonsLearned" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+open/closed
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+global…</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+NO/YES/Partial</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+NO/YES/Pending</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+NO/YES
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="100">
   <si>
     <t>description</t>
   </si>
@@ -53,36 +201,15 @@
     <t>State</t>
   </si>
   <si>
-    <t>open/closed</t>
-  </si>
-  <si>
     <t>Risk area</t>
   </si>
   <si>
-    <t>global…</t>
-  </si>
-  <si>
     <t>Proposed solution</t>
   </si>
   <si>
-    <t>Response</t>
-  </si>
-  <si>
     <t>Areas impacted</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>scope</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -92,14 +219,260 @@
     <t>Scope</t>
   </si>
   <si>
-    <t>Agreed?</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Accepted?</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Minutes relevant</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>ChR1</t>
+  </si>
+  <si>
+    <t>ChR2</t>
+  </si>
+  <si>
+    <t>ChR3</t>
+  </si>
+  <si>
+    <t>ChR4</t>
+  </si>
+  <si>
+    <t>ChR5</t>
+  </si>
+  <si>
+    <t>Proposed by</t>
+  </si>
+  <si>
+    <t>Client - Bestoun S. Ahmed</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>CASA Team - Marek Szeles</t>
+  </si>
+  <si>
+    <t>CASA Team - David Löffler</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Project Team Proposed action</t>
+  </si>
+  <si>
+    <t>As proposed by project team?</t>
+  </si>
+  <si>
+    <t>Project acceptance requirement change</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Client - Miroslav Bureš</t>
+  </si>
+  <si>
+    <t>ChR6</t>
+  </si>
+  <si>
+    <t>W11</t>
+  </si>
+  <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>CASA Team - Kryštof Sýkora</t>
+  </si>
+  <si>
+    <t>W10</t>
+  </si>
+  <si>
+    <t>W12</t>
+  </si>
+  <si>
+    <t>Simplifying parsing to exclude posix and IO modules</t>
+  </si>
+  <si>
+    <t>Program performance is not a priority issue anymore</t>
+  </si>
+  <si>
+    <t>Possibility of running C++ code snippets from Java</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Separate document analysis available</t>
+  </si>
+  <si>
+    <t>Project scope can be extended with teammembers participating receiving compensation for finishing of implementation</t>
+  </si>
+  <si>
+    <t>W5,W7</t>
+  </si>
+  <si>
+    <t>Minutes task ID</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Realization team change</t>
+  </si>
+  <si>
+    <t>CASA team</t>
+  </si>
+  <si>
+    <t>Not being able to deliver full output</t>
+  </si>
+  <si>
+    <t>CASA team/Client</t>
+  </si>
+  <si>
+    <t>Not being able to translate (parts of) program</t>
+  </si>
+  <si>
+    <t>If happened, when?</t>
+  </si>
+  <si>
+    <t>Radical change of requirements</t>
+  </si>
+  <si>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Redistribution of project work/Changing project scope</t>
+  </si>
+  <si>
+    <t>Changing project scope</t>
+  </si>
+  <si>
+    <t>Asking for external help</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Separate document available - External help failed, but solution was found through scope change</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Overall project cancelled</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Refusing change request within bounds of project</t>
+  </si>
+  <si>
+    <t>Responsible</t>
+  </si>
+  <si>
+    <t>When</t>
+  </si>
+  <si>
+    <t>CASA Team</t>
+  </si>
+  <si>
+    <t>Development Team member lost</t>
+  </si>
+  <si>
+    <t>Testing Team member lost</t>
+  </si>
+  <si>
+    <t>Analysis Team member lost</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Project Leader</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,16 +480,71 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -124,22 +552,167 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -437,11 +1010,2006 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="17" max="17" width="57.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q3" s="13"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="13"/>
+    </row>
+    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="13"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="13"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="13"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="7"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="7"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="7"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="7"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="7"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="7"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="7"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="7"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="7"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="7"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:F12">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"high"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"low"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:F6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,119 +3017,344 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="1" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="D6:E6"/>
+  <mergeCells count="1">
+    <mergeCell ref="A4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N3"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="52.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="35" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
+    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="B1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
+      <c r="F1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="H1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M3" t="s">
+      <c r="J1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="10">
+        <v>42822</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N3" t="s">
-        <v>20</v>
-      </c>
+      <c r="I2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="8" t="str">
+        <f t="shared" ref="J2:J7" si="0">IF((H2=I2),"YES","NO")</f>
+        <v>YES</v>
+      </c>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="10">
+        <v>42822</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="10">
+        <v>42831</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>NO</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="10">
+        <v>42852</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="8" t="str">
+        <f>IF((H5=I5),"YES","NO")</f>
+        <v>YES</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="10">
+        <v>42859</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="10">
+        <v>42864</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>NO</v>
+      </c>
+      <c r="K7" s="7"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J2:J7 K4">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I7">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
@@ -573,36 +3366,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
